--- a/data/trans_dic/P16B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Estudios-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,59%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>87,06%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,66%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>89,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>86,76%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,98</t>
+          <t>80,42; 90,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>82,22; 91,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,05</t>
+          <t>75,68; 86,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>86,25; 92,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>86,17; 91,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>85,58; 91,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>85,85; 90,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>86,09; 90,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>83,4; 89,25</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,82%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>63,5%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,26%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,25%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,04%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,11%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,57%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,95</t>
+          <t>66,31; 78,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>64,68; 75,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>57,82; 68,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>73,08; 83,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>68,67; 76,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>65,96; 74,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>71,91; 79,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>69,04; 75,53</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>64,41; 70,74</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,26%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,92%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,22%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>56,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>71,37%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,72%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,37%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>52,9; 76,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>47,37; 74,95</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>41,08; 60,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,18</t>
+          <t>66,27; 83,53</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,74</t>
+          <t>50,09; 68,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>46,99; 64,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,26</t>
+          <t>63,0; 78,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,22</t>
+          <t>53,52; 68,8</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,85</t>
+          <t>47,47; 60,86</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>77,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>76,23%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>66,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>83,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,31%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,5%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>81,55%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>78,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,32%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>73,01; 81,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>72,25; 79,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>62,95; 70,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>81,01; 86,11</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>76,7; 81,53</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>72,64; 78,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>79,53; 83,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>76,35; 80,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>70,06; 74,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16B02-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16B02-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>80,42; 90,99</t>
+          <t>80,89; 90,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>82,22; 91,07</t>
+          <t>82,17; 90,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>75,68; 86,16</t>
+          <t>74,65; 86,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>86,25; 92,25</t>
+          <t>86,19; 92,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>86,17; 91,87</t>
+          <t>86,32; 91,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>85,58; 91,94</t>
+          <t>85,27; 91,94</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>85,85; 90,92</t>
+          <t>85,76; 90,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>86,09; 90,78</t>
+          <t>86,33; 90,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,4; 89,25</t>
+          <t>83,27; 89,53</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>66,31; 78,86</t>
+          <t>65,95; 78,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64,68; 75,39</t>
+          <t>64,03; 75,06</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>57,82; 68,19</t>
+          <t>58,41; 68,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,08; 83,15</t>
+          <t>73,48; 82,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>68,67; 76,81</t>
+          <t>68,91; 76,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,96; 74,19</t>
+          <t>65,91; 73,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,91; 79,67</t>
+          <t>72,13; 79,85</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>69,04; 75,53</t>
+          <t>68,7; 75,05</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>64,41; 70,74</t>
+          <t>64,34; 70,89</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>52,9; 76,04</t>
+          <t>53,33; 76,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>47,37; 74,95</t>
+          <t>47,67; 75,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>41,08; 60,94</t>
+          <t>40,85; 62,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>66,27; 83,53</t>
+          <t>65,02; 83,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>50,09; 68,84</t>
+          <t>50,85; 70,24</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,99; 64,4</t>
+          <t>47,55; 64,41</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>63,0; 78,0</t>
+          <t>64,19; 77,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>53,52; 68,8</t>
+          <t>52,0; 68,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>47,47; 60,86</t>
+          <t>47,8; 60,72</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>73,01; 81,26</t>
+          <t>73,66; 81,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>72,25; 79,8</t>
+          <t>72,56; 79,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,95; 70,54</t>
+          <t>62,22; 70,44</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>81,01; 86,11</t>
+          <t>81,03; 86,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,7; 81,53</t>
+          <t>76,93; 81,47</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>72,64; 78,07</t>
+          <t>72,79; 78,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>79,53; 83,62</t>
+          <t>79,45; 83,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,35; 80,17</t>
+          <t>76,2; 80,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>70,06; 74,66</t>
+          <t>70,21; 74,48</t>
         </is>
       </c>
     </row>
@@ -1079,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>470</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>164569</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>209506</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>145645</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>373762</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>487190</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>363508</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>538330</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>696696</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>509153</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>153746; 172429</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>197750; 218849</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>133139; 154964</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>360057; 385374</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>470744; 499616</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>348329; 375567</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>521230; 553017</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>678562; 713333</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>488625; 525410</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>556</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>144958</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>222232</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>222727</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>228342</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>378515</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>373154</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>373300</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>600747</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>595881</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>131279; 156237</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>202602; 237505</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>204873; 241242</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>214431; 241637</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>356064; 397592</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>350096; 392924</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>354091; 391996</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>572314; 625233</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>567423; 625193</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>40399</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30788</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>51205</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>68850</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>73918</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>78619</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>109250</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>104706</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>129824</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33018; 47197</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>23695; 37540</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>40286; 61564</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>59278; 76100</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>62413; 86214</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>66650; 90275</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>98254; 118699</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>89673; 117990</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>114138; 144992</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>650</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>867</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>742</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1008</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1294</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1148</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>349926</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>462526</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>419577</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>670954</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>939624</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>815281</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1020879</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1402149</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1234858</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>332239; 367078</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>440256; 482011</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>390578; 442175</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>648815; 690276</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>911481; 965251</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>785956; 843222</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>994504; 1049751</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1365172; 1436373</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1198880; 1271705</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>